--- a/ds/turmas/2DES_B/frequencia-3-B.xlsx
+++ b/ds/turmas/2DES_B/frequencia-3-B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF7927-4461-4D9B-B5B3-D39390127FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7895CD-D752-4CB3-BCB8-466542B87A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -518,10 +518,10 @@
   <dimension ref="A1:DS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,8 +541,12 @@
       <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -644,6 +648,22 @@
       <c r="E2" s="1">
         <v>46052</v>
       </c>
+      <c r="F2" s="1">
+        <v>46057</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -704,6 +724,9 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
         <v>36</v>
       </c>
       <c r="AU3" s="2"/>
@@ -800,6 +823,9 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -894,6 +920,9 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -988,6 +1017,9 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1082,6 +1114,9 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1176,6 +1211,9 @@
       <c r="E8" t="s">
         <v>36</v>
       </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1270,6 +1308,9 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1364,6 +1405,9 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1458,6 +1502,9 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1552,6 +1599,9 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1646,6 +1696,9 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1740,6 +1793,9 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1834,6 +1890,9 @@
       <c r="E15" t="s">
         <v>36</v>
       </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -1928,6 +1987,9 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2022,6 +2084,9 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2116,6 +2181,9 @@
       <c r="E18" t="s">
         <v>36</v>
       </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2210,6 +2278,9 @@
       <c r="E19" t="s">
         <v>36</v>
       </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2304,6 +2375,9 @@
       <c r="E20" t="s">
         <v>36</v>
       </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2398,6 +2472,9 @@
       <c r="E21" t="s">
         <v>36</v>
       </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2492,6 +2569,9 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2586,6 +2666,9 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2680,6 +2763,9 @@
       <c r="E24" t="s">
         <v>36</v>
       </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -2774,6 +2860,9 @@
       <c r="E25" t="s">
         <v>36</v>
       </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -2868,6 +2957,9 @@
       <c r="E26" t="s">
         <v>36</v>
       </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -2962,6 +3054,9 @@
       <c r="E27" t="s">
         <v>36</v>
       </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3056,6 +3151,9 @@
       <c r="E28" t="s">
         <v>36</v>
       </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3150,6 +3248,9 @@
       <c r="E29" t="s">
         <v>36</v>
       </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3244,6 +3345,9 @@
       <c r="E30" t="s">
         <v>36</v>
       </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3338,6 +3442,9 @@
       <c r="E31" t="s">
         <v>36</v>
       </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3432,6 +3539,9 @@
       <c r="E32" t="s">
         <v>36</v>
       </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -3526,6 +3636,9 @@
       <c r="E33" t="s">
         <v>37</v>
       </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>

--- a/ds/turmas/2DES_B/frequencia-3-B.xlsx
+++ b/ds/turmas/2DES_B/frequencia-3-B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7895CD-D752-4CB3-BCB8-466542B87A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F74CD-FFAB-4D6F-8837-326C3CACE86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -518,10 +518,10 @@
   <dimension ref="A1:DS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,9 @@
       <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -651,8 +653,12 @@
       <c r="F2" s="1">
         <v>46057</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1">
+        <v>46059</v>
+      </c>
+      <c r="H2" s="1">
+        <v>46064</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -727,6 +733,12 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
       <c r="AU3" s="2"/>
@@ -826,6 +838,12 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -923,6 +941,12 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1020,6 +1044,12 @@
       <c r="F6" t="s">
         <v>36</v>
       </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1117,6 +1147,12 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1214,6 +1250,12 @@
       <c r="F8" t="s">
         <v>36</v>
       </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1311,6 +1353,12 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1408,6 +1456,12 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1505,6 +1559,12 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1602,6 +1662,12 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1699,6 +1765,12 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1796,6 +1868,12 @@
       <c r="F14" t="s">
         <v>36</v>
       </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1893,6 +1971,12 @@
       <c r="F15" t="s">
         <v>37</v>
       </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -1990,6 +2074,12 @@
       <c r="F16" t="s">
         <v>36</v>
       </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2087,6 +2177,12 @@
       <c r="F17" t="s">
         <v>36</v>
       </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2184,6 +2280,12 @@
       <c r="F18" t="s">
         <v>36</v>
       </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2281,6 +2383,12 @@
       <c r="F19" t="s">
         <v>36</v>
       </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2378,6 +2486,12 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2475,6 +2589,12 @@
       <c r="F21" t="s">
         <v>36</v>
       </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2572,6 +2692,12 @@
       <c r="F22" t="s">
         <v>36</v>
       </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2669,6 +2795,12 @@
       <c r="F23" t="s">
         <v>36</v>
       </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2766,6 +2898,12 @@
       <c r="F24" t="s">
         <v>36</v>
       </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -2863,6 +3001,12 @@
       <c r="F25" t="s">
         <v>36</v>
       </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -2960,6 +3104,12 @@
       <c r="F26" t="s">
         <v>36</v>
       </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3057,6 +3207,12 @@
       <c r="F27" t="s">
         <v>36</v>
       </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3154,6 +3310,12 @@
       <c r="F28" t="s">
         <v>36</v>
       </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3251,6 +3413,12 @@
       <c r="F29" t="s">
         <v>36</v>
       </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3348,6 +3516,12 @@
       <c r="F30" t="s">
         <v>36</v>
       </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3445,6 +3619,12 @@
       <c r="F31" t="s">
         <v>36</v>
       </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3542,6 +3722,12 @@
       <c r="F32" t="s">
         <v>36</v>
       </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -3639,6 +3825,12 @@
       <c r="F33" t="s">
         <v>36</v>
       </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>

--- a/ds/turmas/2DES_B/frequencia-3-B.xlsx
+++ b/ds/turmas/2DES_B/frequencia-3-B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10F74CD-FFAB-4D6F-8837-326C3CACE86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B191D7-C723-478A-8FD0-22E9238E6608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -521,7 +521,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,9 @@
       <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -659,7 +661,9 @@
       <c r="H2" s="1">
         <v>46064</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>46066</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -739,6 +743,9 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="AU3" s="2"/>
@@ -844,6 +851,9 @@
       <c r="H4" t="s">
         <v>36</v>
       </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -947,6 +957,9 @@
       <c r="H5" t="s">
         <v>36</v>
       </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1050,6 +1063,9 @@
       <c r="H6" t="s">
         <v>36</v>
       </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1153,6 +1169,9 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1256,6 +1275,9 @@
       <c r="H8" t="s">
         <v>36</v>
       </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1359,6 +1381,9 @@
       <c r="H9" t="s">
         <v>36</v>
       </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1462,6 +1487,9 @@
       <c r="H10" t="s">
         <v>36</v>
       </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1565,6 +1593,9 @@
       <c r="H11" t="s">
         <v>36</v>
       </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1668,6 +1699,9 @@
       <c r="H12" t="s">
         <v>36</v>
       </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1771,6 +1805,9 @@
       <c r="H13" t="s">
         <v>36</v>
       </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1874,6 +1911,9 @@
       <c r="H14" t="s">
         <v>36</v>
       </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -1977,6 +2017,9 @@
       <c r="H15" t="s">
         <v>37</v>
       </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2080,6 +2123,9 @@
       <c r="H16" t="s">
         <v>36</v>
       </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2183,6 +2229,9 @@
       <c r="H17" t="s">
         <v>36</v>
       </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2286,6 +2335,9 @@
       <c r="H18" t="s">
         <v>36</v>
       </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2389,6 +2441,9 @@
       <c r="H19" t="s">
         <v>36</v>
       </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2492,6 +2547,9 @@
       <c r="H20" t="s">
         <v>36</v>
       </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2595,6 +2653,9 @@
       <c r="H21" t="s">
         <v>36</v>
       </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2698,6 +2759,9 @@
       <c r="H22" t="s">
         <v>36</v>
       </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2801,6 +2865,9 @@
       <c r="H23" t="s">
         <v>37</v>
       </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2904,6 +2971,9 @@
       <c r="H24" t="s">
         <v>36</v>
       </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3007,6 +3077,9 @@
       <c r="H25" t="s">
         <v>36</v>
       </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3110,6 +3183,9 @@
       <c r="H26" t="s">
         <v>36</v>
       </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3213,6 +3289,9 @@
       <c r="H27" t="s">
         <v>36</v>
       </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3316,6 +3395,9 @@
       <c r="H28" t="s">
         <v>36</v>
       </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3419,6 +3501,9 @@
       <c r="H29" t="s">
         <v>36</v>
       </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3522,6 +3607,9 @@
       <c r="H30" t="s">
         <v>36</v>
       </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3625,6 +3713,9 @@
       <c r="H31" t="s">
         <v>36</v>
       </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3728,6 +3819,9 @@
       <c r="H32" t="s">
         <v>36</v>
       </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -3831,6 +3925,9 @@
       <c r="H33" t="s">
         <v>36</v>
       </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
@@ -3912,7 +4009,7 @@
     <sortCondition ref="B3:B33"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 F4:AZ10 BE4:BJ10 D4:E33 BK4:DG33 F11:BA22 BC11:BJ22 F23:BJ33">
+  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 BE4:BJ10 BK4:DG33 BC11:BJ22 J23:BJ33 J11:BA22 J4:AZ10 D4:I33">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/turmas/2DES_B/frequencia-3-B.xlsx
+++ b/ds/turmas/2DES_B/frequencia-3-B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1089986\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B191D7-C723-478A-8FD0-22E9238E6608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED90F22-6D23-4E14-9F5F-2BB61F85AD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,15 +30,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -521,7 +518,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,8 +550,12 @@
       <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -664,8 +665,12 @@
       <c r="I2" s="1">
         <v>46066</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="1">
+        <v>46071</v>
+      </c>
+      <c r="K2" s="1">
+        <v>46073</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -747,6 +752,12 @@
       </c>
       <c r="I3" t="s">
         <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -854,6 +865,12 @@
       <c r="I4" t="s">
         <v>36</v>
       </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -960,6 +977,12 @@
       <c r="I5" t="s">
         <v>36</v>
       </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1066,6 +1089,12 @@
       <c r="I6" t="s">
         <v>36</v>
       </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1172,6 +1201,12 @@
       <c r="I7" t="s">
         <v>36</v>
       </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1278,6 +1313,12 @@
       <c r="I8" t="s">
         <v>36</v>
       </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1384,6 +1425,12 @@
       <c r="I9" t="s">
         <v>36</v>
       </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1490,6 +1537,12 @@
       <c r="I10" t="s">
         <v>36</v>
       </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1596,6 +1649,12 @@
       <c r="I11" t="s">
         <v>36</v>
       </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1702,6 +1761,12 @@
       <c r="I12" t="s">
         <v>36</v>
       </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1808,6 +1873,12 @@
       <c r="I13" t="s">
         <v>36</v>
       </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1914,6 +1985,12 @@
       <c r="I14" t="s">
         <v>36</v>
       </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -2020,6 +2097,12 @@
       <c r="I15" t="s">
         <v>36</v>
       </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2126,6 +2209,12 @@
       <c r="I16" t="s">
         <v>36</v>
       </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2232,6 +2321,12 @@
       <c r="I17" t="s">
         <v>36</v>
       </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2338,6 +2433,12 @@
       <c r="I18" t="s">
         <v>36</v>
       </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2444,6 +2545,12 @@
       <c r="I19" t="s">
         <v>36</v>
       </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2550,6 +2657,12 @@
       <c r="I20" t="s">
         <v>36</v>
       </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2656,6 +2769,12 @@
       <c r="I21" t="s">
         <v>36</v>
       </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2762,6 +2881,12 @@
       <c r="I22" t="s">
         <v>36</v>
       </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -2868,6 +2993,12 @@
       <c r="I23" t="s">
         <v>37</v>
       </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -2974,6 +3105,12 @@
       <c r="I24" t="s">
         <v>36</v>
       </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3080,6 +3217,12 @@
       <c r="I25" t="s">
         <v>36</v>
       </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3186,6 +3329,12 @@
       <c r="I26" t="s">
         <v>36</v>
       </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3292,6 +3441,12 @@
       <c r="I27" t="s">
         <v>36</v>
       </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3398,6 +3553,12 @@
       <c r="I28" t="s">
         <v>36</v>
       </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3504,6 +3665,12 @@
       <c r="I29" t="s">
         <v>36</v>
       </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3610,6 +3777,12 @@
       <c r="I30" t="s">
         <v>36</v>
       </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3716,6 +3889,12 @@
       <c r="I31" t="s">
         <v>36</v>
       </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -3822,6 +4001,12 @@
       <c r="I32" t="s">
         <v>36</v>
       </c>
+      <c r="J32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -3928,6 +4113,12 @@
       <c r="I33" t="s">
         <v>36</v>
       </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
@@ -4009,7 +4200,7 @@
     <sortCondition ref="B3:B33"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D3:AZ3 BE3:DG3 BB3:BB22 BE4:BJ10 BK4:DG33 BC11:BJ22 J23:BJ33 J11:BA22 J4:AZ10 D4:I33">
+  <conditionalFormatting sqref="BE3:DG3 BB3:BB22 BE4:BJ10 BK4:DG33 L11:BA22 BC11:BJ22 L23:BJ33 L3:AZ10 D3:K33">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/turmas/2DES_B/frequencia-3-B.xlsx
+++ b/ds/turmas/2DES_B/frequencia-3-B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1089986\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED90F22-6D23-4E14-9F5F-2BB61F85AD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF5E00-09A3-4641-A503-143C3C927E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>P/5</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
@@ -4200,7 +4203,7 @@
     <sortCondition ref="B3:B33"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="BE3:DG3 BB3:BB22 BE4:BJ10 BK4:DG33 L11:BA22 BC11:BJ22 L23:BJ33 L3:AZ10 D3:K33">
+  <conditionalFormatting sqref="BE3:DG3 L3:AZ10 BB3:BB22 D3:K33 BE4:BJ10 BK4:DG33 L11:BA22 BC11:BJ22 L23:BJ33">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/turmas/2DES_B/frequencia-3-B.xlsx
+++ b/ds/turmas/2DES_B/frequencia-3-B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\turmas\2DES_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF5E00-09A3-4641-A503-143C3C927E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C4D75-C643-4B4A-BC85-4A3ABDB7A8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -521,7 +521,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,9 @@
       <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -674,7 +676,9 @@
       <c r="K2" s="1">
         <v>46073</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1">
+        <v>46078</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -761,6 +765,9 @@
       </c>
       <c r="K3" t="s">
         <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -874,6 +881,9 @@
       <c r="K4" t="s">
         <v>38</v>
       </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -986,6 +996,9 @@
       <c r="K5" t="s">
         <v>37</v>
       </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -1098,6 +1111,9 @@
       <c r="K6" t="s">
         <v>36</v>
       </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1210,6 +1226,9 @@
       <c r="K7" t="s">
         <v>36</v>
       </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
@@ -1322,6 +1341,9 @@
       <c r="K8" t="s">
         <v>36</v>
       </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
@@ -1434,6 +1456,9 @@
       <c r="K9" t="s">
         <v>36</v>
       </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -1546,6 +1571,9 @@
       <c r="K10" t="s">
         <v>36</v>
       </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1658,6 +1686,9 @@
       <c r="K11" t="s">
         <v>36</v>
       </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -1770,6 +1801,9 @@
       <c r="K12" t="s">
         <v>36</v>
       </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1882,6 +1916,9 @@
       <c r="K13" t="s">
         <v>36</v>
       </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -1994,6 +2031,9 @@
       <c r="K14" t="s">
         <v>37</v>
       </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -2106,6 +2146,9 @@
       <c r="K15" t="s">
         <v>37</v>
       </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -2218,6 +2261,9 @@
       <c r="K16" t="s">
         <v>36</v>
       </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -2330,6 +2376,9 @@
       <c r="K17" t="s">
         <v>36</v>
       </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -2442,6 +2491,9 @@
       <c r="K18" t="s">
         <v>36</v>
       </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -2554,6 +2606,9 @@
       <c r="K19" t="s">
         <v>36</v>
       </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -2666,6 +2721,9 @@
       <c r="K20" t="s">
         <v>36</v>
       </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -2778,6 +2836,9 @@
       <c r="K21" t="s">
         <v>36</v>
       </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -2890,6 +2951,9 @@
       <c r="K22" t="s">
         <v>36</v>
       </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
@@ -3002,6 +3066,9 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
@@ -3114,6 +3181,9 @@
       <c r="K24" t="s">
         <v>36</v>
       </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
@@ -3226,6 +3296,9 @@
       <c r="K25" t="s">
         <v>36</v>
       </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
@@ -3338,6 +3411,9 @@
       <c r="K26" t="s">
         <v>36</v>
       </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
@@ -3450,6 +3526,9 @@
       <c r="K27" t="s">
         <v>36</v>
       </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
@@ -3562,6 +3641,9 @@
       <c r="K28" t="s">
         <v>36</v>
       </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
@@ -3674,6 +3756,9 @@
       <c r="K29" t="s">
         <v>36</v>
       </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
@@ -3786,6 +3871,9 @@
       <c r="K30" t="s">
         <v>36</v>
       </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
@@ -3898,6 +3986,9 @@
       <c r="K31" t="s">
         <v>37</v>
       </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
@@ -4010,6 +4101,9 @@
       <c r="K32" t="s">
         <v>36</v>
       </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
@@ -4122,6 +4216,9 @@
       <c r="K33" t="s">
         <v>36</v>
       </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
